--- a/docs/odh/shr-core-Medication.xlsx
+++ b/docs/odh/shr-core-Medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$42</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="245">
   <si>
     <t>Path</t>
   </si>
@@ -218,26 +218,111 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Medication.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t>Medication.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Medication.meta.extension</t>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Medication.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Medication.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Medication.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Medication.extension</t>
   </si>
   <si>
     <t>extensions
@@ -251,7 +336,7 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
@@ -261,206 +346,7 @@
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Medication.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Medication.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Medication.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Medication.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Medication.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Medication.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Medication.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Medication.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Medication.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Medication.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -658,7 +544,29 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -756,6 +664,9 @@
   </si>
   <si>
     <t>The kind of container that this package comes as.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept defining the kind of container a medication package is packaged in</t>
@@ -1031,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO49"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1063,11 +974,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="75.84765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.5625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1561,10 +1472,10 @@
         <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>64</v>
@@ -1575,7 +1486,9 @@
       <c r="L5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>41</v>
@@ -1624,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1645,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>41</v>
@@ -1660,14 +1573,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -1679,16 +1592,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1714,37 +1627,37 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
@@ -1759,7 +1672,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -1770,11 +1683,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1790,19 +1703,19 @@
         <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1851,13 +1764,17 @@
       <c r="AD7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE7" s="2"/>
+      <c r="AE7" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG7" s="2"/>
+      <c r="AG7" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH7" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>41</v>
@@ -1869,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -1880,18 +1797,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>41</v>
@@ -1900,19 +1817,19 @@
         <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1961,11 +1878,15 @@
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE8" s="2"/>
+      <c r="AE8" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG8" s="2"/>
+      <c r="AG8" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH8" t="s" s="2">
         <v>41</v>
       </c>
@@ -1979,7 +1900,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>41</v>
@@ -1990,11 +1911,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2010,19 +1931,19 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2060,22 +1981,24 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG9" s="2"/>
+      <c r="AG9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH9" t="s" s="2">
         <v>41</v>
       </c>
@@ -2089,7 +2012,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2100,9 +2023,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2120,20 +2045,16 @@
         <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2158,13 +2079,13 @@
         <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>41</v>
@@ -2181,11 +2102,15 @@
       <c r="AD10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE10" s="2"/>
+      <c r="AE10" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG10" s="2"/>
+      <c r="AG10" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2210,11 +2135,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2227,22 +2152,22 @@
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2268,13 +2193,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -2291,11 +2216,15 @@
       <c r="AD11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE11" s="2"/>
+      <c r="AE11" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG11" s="2"/>
+      <c r="AG11" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2309,7 +2238,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2318,9 +2247,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2328,31 +2257,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2378,13 +2307,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2402,7 +2331,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2417,24 +2346,24 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2454,19 +2383,19 @@
         <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2492,13 +2421,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2516,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2537,7 +2466,7 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -2548,11 +2477,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2568,20 +2497,18 @@
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2630,7 +2557,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2639,7 +2566,7 @@
         <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>41</v>
@@ -2648,13 +2575,13 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2662,18 +2589,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>41</v>
@@ -2682,20 +2609,18 @@
         <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2750,7 +2675,7 @@
         <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -2765,10 +2690,10 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2776,18 +2701,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
@@ -2796,20 +2721,18 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2846,14 +2769,16 @@
         <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>140</v>
@@ -2862,7 +2787,7 @@
         <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
@@ -2874,25 +2799,23 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>41</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
@@ -2901,7 +2824,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>41</v>
@@ -2913,13 +2836,17 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="K17" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -2944,13 +2871,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -2968,13 +2895,13 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -2986,25 +2913,25 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3017,22 +2944,22 @@
         <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3082,7 +3009,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3094,7 +3021,7 @@
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -3103,7 +3030,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3112,9 +3039,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3122,32 +3049,30 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3172,13 +3097,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3196,7 +3121,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3211,35 +3136,35 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3248,19 +3173,19 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3286,13 +3211,13 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3310,13 +3235,13 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
@@ -3331,7 +3256,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3342,38 +3267,40 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3422,13 +3349,13 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3440,13 +3367,13 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>41</v>
@@ -3454,7 +3381,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3462,7 +3389,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>51</v>
@@ -3474,16 +3401,16 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3534,10 +3461,10 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -3552,21 +3479,21 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3586,19 +3513,21 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3646,7 +3575,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3664,21 +3593,21 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>183</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3701,17 +3630,15 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3736,13 +3663,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3760,7 +3687,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3803,7 +3730,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>41</v>
@@ -3815,17 +3742,15 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -3880,22 +3805,22 @@
         <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>41</v>
@@ -3906,7 +3831,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3929,13 +3854,13 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3986,7 +3911,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4007,7 +3932,7 @@
         <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
@@ -4018,11 +3943,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4041,16 +3966,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>73</v>
+        <v>170</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4100,7 +4025,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4121,7 +4046,7 @@
         <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
@@ -4132,11 +4057,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4155,16 +4080,16 @@
         <v>52</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4214,7 +4139,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4235,7 +4160,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4246,7 +4171,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4254,7 +4179,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>51</v>
@@ -4269,13 +4194,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4302,13 +4227,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4326,10 +4251,10 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>51</v>
@@ -4344,21 +4269,21 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4369,7 +4294,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4381,18 +4306,16 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4440,28 +4363,28 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4472,7 +4395,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4495,13 +4418,13 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4552,7 +4475,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4570,32 +4493,32 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>222</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4607,15 +4530,17 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>194</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4664,28 +4589,28 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -4696,38 +4621,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -4776,13 +4703,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -4797,7 +4724,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -4808,18 +4735,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -4831,17 +4758,15 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>214</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4890,13 +4815,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -4908,10 +4833,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -4922,40 +4847,38 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5004,13 +4927,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -5022,10 +4945,10 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -5036,7 +4959,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5059,13 +4982,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5092,13 +5015,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>234</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5116,28 +5039,28 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5148,7 +5071,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5159,7 +5082,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5171,13 +5094,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5228,28 +5151,28 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>238</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5260,18 +5183,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -5283,15 +5206,17 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5340,13 +5265,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5361,7 +5286,7 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5372,11 +5297,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5389,22 +5314,22 @@
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5454,7 +5379,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5475,7 +5400,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5486,40 +5411,38 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5568,13 +5491,13 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
@@ -5586,21 +5509,21 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5608,7 +5531,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>51</v>
@@ -5623,13 +5546,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5680,10 +5603,10 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>51</v>
@@ -5698,21 +5621,21 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5723,7 +5646,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -5735,16 +5658,18 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5792,13 +5717,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -5810,810 +5735,20 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN49">
+  <autoFilter ref="A1:AN42">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6623,7 +5758,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI41">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/odh/shr-core-Medication.xlsx
+++ b/docs/odh/shr-core-Medication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="283">
   <si>
     <t>Path</t>
   </si>
@@ -218,13 +218,162 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>Medication.implicitRules</t>
+    <t>Medication.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>sourcesystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SourceSystem-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>FHIR: This provides a minimal amount of Provenance information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.
+FHIM: Identifies the computer system that created the medical record. This optional field may also be used to indicate that the medical record was originally created by a different organization from the one that is currently storing or utilizing the record in that the assigning authority of the Id could be set to that originating organization. This property is optional, as some systems will assume that all records that it contains originated in that system, however it is anticipated that it will become increasingly commonplace for records from multiple systems and organizations will be comingled in order to provide a complete picture of the patient's health record.</t>
+  </si>
+  <si>
+    <t>Medication.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Medication.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Medication.meta.profile</t>
   </si>
   <si>
     <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Medication.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Medication.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Medication.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -254,9 +403,6 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A human language.</t>
   </si>
   <si>
@@ -325,41 +471,40 @@
     <t>Medication.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>partof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PartOf-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-extension]]} {[]}
+    <t>The larger entity that the asserted item is a portion of. For example, an organization part of a larger organization, or an encounter with a hospitalist might be part of a larger hospitalization encounter.</t>
+  </si>
+  <si>
+    <t>packageamount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PackageAmount-extension]]} {[]}
 </t>
   </si>
   <si>
-    <t>Business identifier or external id for this resource.</t>
+    <t>Specific amount of the drug in the packaged product. For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
   </si>
   <si>
     <t>Medication.modifierExtension</t>
@@ -470,7 +615,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization]]}
 </t>
   </si>
   <si>
@@ -544,29 +689,7 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Medication.ingredient.modifierExtension</t>
@@ -586,7 +709,7 @@
   </si>
   <si>
     <t>CodeableConcept {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Substance], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Medication]]}</t>
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Substance], CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Medication]]}</t>
   </si>
   <si>
     <t>The product contained</t>
@@ -664,9 +787,6 @@
   </si>
   <si>
     <t>The kind of container that this package comes as.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>A coded concept defining the kind of container a medication package is packaged in</t>
@@ -942,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -952,7 +1072,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.48828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.37890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -974,11 +1094,11 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="75.84765625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="57.86328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="38.5625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1472,10 +1592,10 @@
         <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>64</v>
@@ -1486,9 +1606,7 @@
       <c r="L5" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>41</v>
@@ -1537,7 +1655,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1558,7 +1676,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>41</v>
@@ -1573,14 +1691,14 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -1592,16 +1710,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1627,37 +1745,37 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AC6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
@@ -1672,7 +1790,7 @@
         <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>41</v>
@@ -1683,11 +1801,13 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1708,15 +1828,11 @@
       <c r="J7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
         <v>41</v>
@@ -1765,16 +1881,16 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>41</v>
@@ -1786,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>41</v>
@@ -1797,18 +1913,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>41</v>
@@ -1817,19 +1933,19 @@
         <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1878,15 +1994,11 @@
       <c r="AD8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE8" t="s" s="2">
-        <v>93</v>
-      </c>
+      <c r="AE8" s="2"/>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG8" s="2"/>
       <c r="AH8" t="s" s="2">
         <v>41</v>
       </c>
@@ -1900,7 +2012,7 @@
         <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>41</v>
@@ -1911,18 +2023,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>41</v>
@@ -1931,19 +2043,19 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1981,24 +2093,22 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AE9" s="2"/>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG9" s="2"/>
       <c r="AH9" t="s" s="2">
         <v>41</v>
       </c>
@@ -2012,7 +2122,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>41</v>
@@ -2023,11 +2133,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2045,16 +2153,20 @@
         <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2102,15 +2214,11 @@
       <c r="AD10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE10" t="s" s="2">
-        <v>103</v>
-      </c>
+      <c r="AE10" s="2"/>
       <c r="AF10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG10" s="2"/>
       <c r="AH10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2135,11 +2243,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2152,19 +2260,19 @@
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>100</v>
@@ -2193,13 +2301,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -2216,15 +2324,11 @@
       <c r="AD11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE11" t="s" s="2">
-        <v>110</v>
-      </c>
+      <c r="AE11" s="2"/>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>43</v>
-      </c>
+      <c r="AG11" s="2"/>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
@@ -2238,7 +2342,7 @@
         <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>41</v>
@@ -2247,9 +2351,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2257,13 +2361,13 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>41</v>
@@ -2272,16 +2376,16 @@
         <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2307,13 +2411,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -2330,15 +2434,11 @@
       <c r="AD12" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AE12" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="AE12" s="2"/>
       <c r="AF12" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG12" s="2"/>
       <c r="AH12" t="s" s="2">
         <v>41</v>
       </c>
@@ -2346,24 +2446,24 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2380,22 +2480,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2421,13 +2521,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2445,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -2466,7 +2566,7 @@
         <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>41</v>
@@ -2477,7 +2577,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2497,18 +2597,20 @@
         <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2533,13 +2635,13 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
@@ -2557,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2575,13 +2677,13 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>41</v>
@@ -2589,11 +2691,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2609,18 +2711,20 @@
         <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2669,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2678,7 +2782,7 @@
         <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>41</v>
@@ -2690,10 +2794,10 @@
         <v>41</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>41</v>
@@ -2701,18 +2805,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
@@ -2721,18 +2825,20 @@
         <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2781,50 +2887,50 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>41</v>
@@ -2836,16 +2942,16 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>72</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2871,37 +2977,35 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -2913,23 +3017,25 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
@@ -2950,17 +3056,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="K18" s="2"/>
       <c r="L18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3009,7 +3111,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3021,7 +3123,7 @@
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -3030,7 +3132,7 @@
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
@@ -3041,9 +3143,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
@@ -3064,13 +3168,11 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="K19" s="2"/>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3121,13 +3223,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3142,7 +3244,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3153,18 +3255,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3176,17 +3280,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3235,7 +3335,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3256,7 +3356,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3267,11 +3367,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3287,19 +3387,19 @@
         <v>52</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3349,7 +3449,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3370,7 +3470,7 @@
         <v>41</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3379,9 +3479,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3395,24 +3495,26 @@
         <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3437,13 +3539,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3461,10 +3563,10 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>51</v>
@@ -3476,24 +3578,24 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3513,21 +3615,21 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3551,13 +3653,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3575,7 +3677,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3596,7 +3698,7 @@
         <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>41</v>
@@ -3607,7 +3709,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3627,16 +3729,16 @@
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3687,7 +3789,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3705,21 +3807,21 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3739,16 +3841,16 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3799,7 +3901,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3811,19 +3913,19 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -3831,7 +3933,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3851,16 +3953,16 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3911,7 +4013,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3929,32 +4031,32 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -3966,16 +4068,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4001,13 +4103,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4025,13 +4127,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4043,25 +4145,25 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4074,22 +4176,22 @@
         <v>41</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4139,7 +4241,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4151,7 +4253,7 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>41</v>
@@ -4160,7 +4262,7 @@
         <v>41</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4171,7 +4273,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4194,13 +4296,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4227,13 +4329,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4251,7 +4353,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4269,10 +4371,10 @@
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4283,11 +4385,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4306,15 +4408,17 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>207</v>
+        <v>72</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4363,7 +4467,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4375,16 +4479,16 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
@@ -4395,38 +4499,40 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4475,13 +4581,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4496,7 +4602,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4507,18 +4613,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4530,17 +4636,15 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -4589,13 +4693,13 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4607,55 +4711,55 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4703,13 +4807,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -4724,7 +4828,7 @@
         <v>41</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -4735,7 +4839,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4743,7 +4847,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>51</v>
@@ -4758,13 +4862,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4815,10 +4919,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>51</v>
@@ -4833,21 +4937,21 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4870,13 +4974,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4927,7 +5031,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -4939,16 +5043,16 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
@@ -4959,7 +5063,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4982,13 +5086,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5039,28 +5143,28 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5071,18 +5175,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>41</v>
@@ -5094,15 +5198,17 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>165</v>
+        <v>72</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>41</v>
@@ -5151,13 +5257,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5172,7 +5278,7 @@
         <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5183,11 +5289,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5200,22 +5306,22 @@
         <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5265,7 +5371,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5286,7 +5392,7 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>41</v>
@@ -5297,40 +5403,38 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5355,13 +5459,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5379,13 +5483,13 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
@@ -5397,10 +5501,10 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>41</v>
@@ -5411,7 +5515,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5422,7 +5526,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5434,13 +5538,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5491,39 +5595,39 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5546,13 +5650,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5603,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5621,25 +5725,25 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5658,18 +5762,18 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -5717,7 +5821,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5738,17 +5842,1145 @@
         <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>244</v>
+        <v>68</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P47" s="2"/>
+      <c r="Q47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN42">
+  <autoFilter ref="A1:AN52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5758,7 +6990,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
